--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl12-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl12-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H2">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I2">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J2">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N2">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O2">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P2">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q2">
-        <v>4.151212858621111</v>
+        <v>0.1819394635411111</v>
       </c>
       <c r="R2">
-        <v>37.36091572759</v>
+        <v>1.63745517187</v>
       </c>
       <c r="S2">
-        <v>0.03565348124103258</v>
+        <v>0.001001203937056936</v>
       </c>
       <c r="T2">
-        <v>0.03565348124103258</v>
+        <v>0.001001203937056936</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H3">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I3">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J3">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N3">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O3">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P3">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q3">
-        <v>40.74065401859556</v>
+        <v>1.581788625680667</v>
       </c>
       <c r="R3">
-        <v>366.66588616736</v>
+        <v>14.236097631126</v>
       </c>
       <c r="S3">
-        <v>0.349908856343705</v>
+        <v>0.008704505162320172</v>
       </c>
       <c r="T3">
-        <v>0.3499088563437049</v>
+        <v>0.008704505162320172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H4">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I4">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J4">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N4">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O4">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P4">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q4">
-        <v>9.898448345066667</v>
+        <v>0.1420294156555556</v>
       </c>
       <c r="R4">
-        <v>89.0860351056</v>
+        <v>1.2782647409</v>
       </c>
       <c r="S4">
-        <v>0.0850147064015865</v>
+        <v>0.000781580902595696</v>
       </c>
       <c r="T4">
-        <v>0.08501470640158648</v>
+        <v>0.0007815809025956959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H5">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I5">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J5">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N5">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O5">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P5">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q5">
-        <v>1.000318148235778</v>
+        <v>7.010782021614999</v>
       </c>
       <c r="R5">
-        <v>9.002863334122001</v>
+        <v>63.09703819453499</v>
       </c>
       <c r="S5">
-        <v>0.008591422687256602</v>
+        <v>0.038579989328719</v>
       </c>
       <c r="T5">
-        <v>0.008591422687256602</v>
+        <v>0.038579989328719</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H6">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I6">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J6">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N6">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O6">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P6">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q6">
-        <v>9.817279184120888</v>
+        <v>60.952005920427</v>
       </c>
       <c r="R6">
-        <v>88.355512657088</v>
+        <v>548.5680532838429</v>
       </c>
       <c r="S6">
-        <v>0.08431756962356737</v>
+        <v>0.3354158966466332</v>
       </c>
       <c r="T6">
-        <v>0.08431756962356737</v>
+        <v>0.3354158966466332</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,14 +832,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -844,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H7">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I7">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J7">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N7">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O7">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P7">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q7">
-        <v>2.385230017386666</v>
+        <v>5.47290430805</v>
       </c>
       <c r="R7">
-        <v>21.46707015648</v>
+        <v>49.25613877245</v>
       </c>
       <c r="S7">
-        <v>0.02048600170040214</v>
+        <v>0.03011712376032911</v>
       </c>
       <c r="T7">
-        <v>0.02048600170040214</v>
+        <v>0.03011712376032911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,13 +894,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -906,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H8">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I8">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J8">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N8">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O8">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P8">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q8">
-        <v>3.670006107354222</v>
+        <v>1.445101270679999</v>
       </c>
       <c r="R8">
-        <v>33.030054966188</v>
+        <v>13.00591143612</v>
       </c>
       <c r="S8">
-        <v>0.03152054552714314</v>
+        <v>0.007952321357284142</v>
       </c>
       <c r="T8">
-        <v>0.03152054552714314</v>
+        <v>0.007952321357284142</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,13 +956,13 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -968,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H9">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I9">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J9">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N9">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O9">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P9">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q9">
-        <v>36.01801549523911</v>
+        <v>12.563765487864</v>
       </c>
       <c r="R9">
-        <v>324.162139457152</v>
+        <v>113.073889390776</v>
       </c>
       <c r="S9">
-        <v>0.3093475770898639</v>
+        <v>0.06913778476579474</v>
       </c>
       <c r="T9">
-        <v>0.3093475770898638</v>
+        <v>0.06913778476579474</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.988471999999999</v>
+      </c>
+      <c r="H10">
+        <v>23.965416</v>
+      </c>
+      <c r="I10">
+        <v>0.08329801469605898</v>
+      </c>
+      <c r="J10">
+        <v>0.08329801469605898</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1412166666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.42365</v>
+      </c>
+      <c r="O10">
+        <v>0.07452648896413371</v>
+      </c>
+      <c r="P10">
+        <v>0.07452648896413369</v>
+      </c>
+      <c r="Q10">
+        <v>1.1281053876</v>
+      </c>
+      <c r="R10">
+        <v>10.1529484884</v>
+      </c>
+      <c r="S10">
+        <v>0.006207908572980087</v>
+      </c>
+      <c r="T10">
+        <v>0.006207908572980085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H11">
+        <v>144.458134</v>
+      </c>
+      <c r="I11">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J11">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1808983333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.5426949999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.09546831801815302</v>
+      </c>
+      <c r="P11">
+        <v>0.09546831801815302</v>
+      </c>
+      <c r="Q11">
+        <v>8.71074522568111</v>
+      </c>
+      <c r="R11">
+        <v>78.39670703112999</v>
+      </c>
+      <c r="S11">
+        <v>0.04793480339509294</v>
+      </c>
+      <c r="T11">
+        <v>0.04793480339509294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>35.65443533333333</v>
-      </c>
-      <c r="H10">
-        <v>106.963306</v>
-      </c>
-      <c r="I10">
-        <v>0.41602796200245</v>
-      </c>
-      <c r="J10">
-        <v>0.41602796200245</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.24544</v>
-      </c>
-      <c r="N10">
-        <v>0.73632</v>
-      </c>
-      <c r="O10">
-        <v>0.1806605474874317</v>
-      </c>
-      <c r="P10">
-        <v>0.1806605474874316</v>
-      </c>
-      <c r="Q10">
-        <v>8.751024608213333</v>
-      </c>
-      <c r="R10">
-        <v>78.75922147391999</v>
-      </c>
-      <c r="S10">
-        <v>0.07515983938544302</v>
-      </c>
-      <c r="T10">
-        <v>0.07515983938544302</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H12">
+        <v>144.458134</v>
+      </c>
+      <c r="I12">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J12">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.572737</v>
+      </c>
+      <c r="N12">
+        <v>4.718211</v>
+      </c>
+      <c r="O12">
+        <v>0.8300051930177132</v>
+      </c>
+      <c r="P12">
+        <v>0.8300051930177132</v>
+      </c>
+      <c r="Q12">
+        <v>75.73155076425267</v>
+      </c>
+      <c r="R12">
+        <v>681.5839568782741</v>
+      </c>
+      <c r="S12">
+        <v>0.4167470064429651</v>
+      </c>
+      <c r="T12">
+        <v>0.416747006442965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H13">
+        <v>144.458134</v>
+      </c>
+      <c r="I13">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J13">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1412166666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.42365</v>
+      </c>
+      <c r="O13">
+        <v>0.07452648896413371</v>
+      </c>
+      <c r="P13">
+        <v>0.07452648896413369</v>
+      </c>
+      <c r="Q13">
+        <v>6.799965385455557</v>
+      </c>
+      <c r="R13">
+        <v>61.1996884691</v>
+      </c>
+      <c r="S13">
+        <v>0.03741987572822881</v>
+      </c>
+      <c r="T13">
+        <v>0.03741987572822879</v>
       </c>
     </row>
   </sheetData>
